--- a/biology/Botanique/Solandra_grandiflora/Solandra_grandiflora.xlsx
+++ b/biology/Botanique/Solandra_grandiflora/Solandra_grandiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solandra grandiflora, la grande solandre ou liane trompette[2], est une espèce de plantes dicotylédones de la famille des Solanaceae, sous-famille des Solanoideae, originaire des régions tropicales d'Amérique.
-C'est une plante ligneuse grimpante, au feuilles persistantes, qui peut atteindre 12 mètres de haut. Elle est toxique du fait de la présence dans tous ses organes d'alcaloïdes tropaniques (atropine, hyoscyamine, scopolamine)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solandra grandiflora, la grande solandre ou liane trompette, est une espèce de plantes dicotylédones de la famille des Solanaceae, sous-famille des Solanoideae, originaire des régions tropicales d'Amérique.
+C'est une plante ligneuse grimpante, au feuilles persistantes, qui peut atteindre 12 mètres de haut. Elle est toxique du fait de la présence dans tous ses organes d'alcaloïdes tropaniques (atropine, hyoscyamine, scopolamine).
 La grande solandre est cultivée comme plante ornementale dans les jardins tropicaux (elle ne résiste pas au gel), ou parfois comme plante d'intérieur, pour ses grandes fleurs parfumées et sa floraison abondante.
 </t>
         </is>
@@ -513,18 +525,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Solandra grandiflora a été décrite en premier par le botaniste suédois Olof Peter Swartz et publiée en 1787 dans Kongl. Vetenskaps Academiens Nya Handlingar[4]. C'est l'espèce-type du genre Solandra.
-Synonymes
-Selon The Plant List            (20 septembre 2020)[1] : 
-Swartzia grandiflora (Sw.) J.F.Gmel.
-Variétés
-Selon The Plant List            (20 septembre 2020)[1] :
-Solandra grandiflora var. macrantha (Dunal) Voss
-Selon Tropicos                                           (20 septembre 2020)[5] (Attention liste brute contenant possiblement des synonymes) :
-Solandra grandiflora var. macrantha (Dunal) Voss
-Solandra grandiflora var. nitida Voss</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Solandra grandiflora a été décrite en premier par le botaniste suédois Olof Peter Swartz et publiée en 1787 dans Kongl. Vetenskaps Academiens Nya Handlingar. C'est l'espèce-type du genre Solandra.
+</t>
         </is>
       </c>
     </row>
@@ -549,12 +555,91 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (20 septembre 2020) : 
+Swartzia grandiflora (Sw.) J.F.Gmel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Solandra_grandiflora</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solandra_grandiflora</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (20 septembre 2020) :
+Solandra grandiflora var. macrantha (Dunal) Voss
+Selon Tropicos                                           (20 septembre 2020) (Attention liste brute contenant possiblement des synonymes) :
+Solandra grandiflora var. macrantha (Dunal) Voss
+Solandra grandiflora var. nitida Voss</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Solandra_grandiflora</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solandra_grandiflora</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition originelle de Solandra grandiflora s'étend du Mexique au Brésil, englobant les pays suivants : Brésil, Costa Rica, Cuba, Salvador, Guatemala, Honduras, Jamaïque, Mexique, Nicaragua, Panama, Porto Rico, Trinité-et-Tobago, Venezuela. L'espèce a été introduite en Équateur, à Malte, et au Maroc[6]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition originelle de Solandra grandiflora s'étend du Mexique au Brésil, englobant les pays suivants : Brésil, Costa Rica, Cuba, Salvador, Guatemala, Honduras, Jamaïque, Mexique, Nicaragua, Panama, Porto Rico, Trinité-et-Tobago, Venezuela. L'espèce a été introduite en Équateur, à Malte, et au Maroc. 
 </t>
         </is>
       </c>
